--- a/static/excel/外呼名单导入模版.xlsx
+++ b/static/excel/外呼名单导入模版.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/sts_projects/BQSVN/开发/模板数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DF4FB84E-265C-0C4B-917C-DBE3C98E6ED4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -62,22 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,12 +110,24 @@
   </si>
   <si>
     <t>先生5</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>江苏省</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,7 +178,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -463,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -497,13 +489,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>13434340021</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -517,39 +509,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -557,39 +549,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -597,6 +589,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+      <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/static/excel/外呼名单导入模版.xlsx
+++ b/static/excel/外呼名单导入模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/ywh-web/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,9 @@
   </si>
   <si>
     <t>江苏省</t>
+  </si>
+  <si>
+    <t>上海市</t>
   </si>
 </sst>
 </file>
@@ -459,7 +458,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -489,102 +488,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>13434340021</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/static/excel/外呼名单导入模版.xlsx
+++ b/static/excel/外呼名单导入模版.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/ywh-web/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F302B6A8-8333-49B5-AE6A-B4093375EA78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>联系人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,66 +50,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>唐总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刘龙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婷姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-30岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-45岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45-60岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60岁以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>营销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>自有</t>
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-30岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45-60岁</t>
-  </si>
-  <si>
-    <t>先生1</t>
-  </si>
-  <si>
-    <t>先生2</t>
-  </si>
-  <si>
-    <t>先生3</t>
-  </si>
-  <si>
-    <t>先生4</t>
-  </si>
-  <si>
-    <t>先生5</t>
+  </si>
+  <si>
+    <t>上海市</t>
   </si>
   <si>
     <t>天津市</t>
@@ -118,16 +121,13 @@
   </si>
   <si>
     <t>江苏省</t>
-  </si>
-  <si>
-    <t>上海市</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -454,20 +454,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -482,13 +482,13 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>13434340021</v>
@@ -497,18 +497,18 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
@@ -517,18 +517,18 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
@@ -537,59 +537,68 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{09C47343-DF10-4AD8-B5B6-30A2462986EB}">
+      <formula1>"营销,自有"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{DE9B4269-EBC9-4C62-8590-BF57C29702CF}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{2EB4C18F-6685-4D5D-B4C5-DB8799013B21}">
+      <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{87A1A917-FCE4-42ED-B659-1C41B874F218}">
       <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/excel/外呼名单导入模版.xlsx
+++ b/static/excel/外呼名单导入模版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F302B6A8-8333-49B5-AE6A-B4093375EA78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F53F3710-F08B-4CB7-9D0A-96B7D2BAC908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zsf</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{468BDDB2-E224-4FA0-9CB1-629CF553D17F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">温馨小提示:
+联系人姓名不要超过50个字符喔！
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>联系人姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +76,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>唐总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘龙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婷姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁以下</t>
+  </si>
+  <si>
     <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>18-30岁</t>
+  </si>
+  <si>
+    <t>30-45岁</t>
+  </si>
+  <si>
+    <t>45-60岁</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
     <t>所在地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,84 +145,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唐总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘龙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婷姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁以下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-30岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-45岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45-60岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60岁以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>营销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自有</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>江苏省</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +175,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -454,11 +494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -467,7 +507,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -477,18 +517,18 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>13434340021</v>
@@ -497,111 +537,113 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{09C47343-DF10-4AD8-B5B6-30A2462986EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{26267A74-301C-454F-99F9-6EF9FEC6166E}">
       <formula1>"营销,自有"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6" xr:uid="{DE9B4269-EBC9-4C62-8590-BF57C29702CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{3DBBB42F-4A3A-4F6A-A42D-77850536DA50}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{2EB4C18F-6685-4D5D-B4C5-DB8799013B21}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B4A7A06B-79E1-46D4-9273-EF9EE5EB8367}">
       <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E6" xr:uid="{87A1A917-FCE4-42ED-B659-1C41B874F218}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{A92A9A63-8367-4C1D-988A-8A27D08F0DFD}">
       <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/static/excel/外呼名单导入模版.xlsx
+++ b/static/excel/外呼名单导入模版.xlsx
@@ -1,47 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BQ\开发\模板数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F53F3710-F08B-4CB7-9D0A-96B7D2BAC908}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zsf</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{468BDDB2-E224-4FA0-9CB1-629CF553D17F}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">温馨小提示:
@@ -51,9 +35,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -66,105 +48,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>所在地</t>
   </si>
   <si>
     <t>唐总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁以下</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>婷姐</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>史老板</t>
+  </si>
+  <si>
+    <t>18-30岁</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
   </si>
   <si>
     <t>刘龙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婷姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-45岁</t>
+  </si>
+  <si>
+    <t>重庆市</t>
   </si>
   <si>
     <t>鲁班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自有</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>上海市</t>
+  </si>
+  <si>
+    <t>45-60岁</t>
   </si>
   <si>
     <t>山西省</t>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18岁以下</t>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>18-30岁</t>
-  </si>
-  <si>
-    <t>30-45岁</t>
-  </si>
-  <si>
-    <t>45-60岁</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>所在地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名单来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -172,35 +132,356 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,25 +489,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,7 +842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -310,7 +877,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -484,29 +1051,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.9076923076923" defaultRowHeight="15.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,136 +1076,115 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>13434340021</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3">
         <v>13799900222</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>18218086351</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>17612161114</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>18677772222</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{26267A74-301C-454F-99F9-6EF9FEC6166E}">
-      <formula1>"营销,自有"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{3DBBB42F-4A3A-4F6A-A42D-77850536DA50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{B4A7A06B-79E1-46D4-9273-EF9EE5EB8367}">
-      <formula1>"18岁以下,18-30岁,30-45岁,45-60岁,60岁以上"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{A92A9A63-8367-4C1D-988A-8A27D08F0DFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"北京市,天津市,上海市,重庆市,河北省,山西省,辽宁省,吉林省,黑龙江省,江苏省,浙江省,安徽省,福建省,江西省,山东省,河南省,湖北省,湖南省,广东省,海南省,四川省,贵州省,云南省,陕西省,甘肃省,青海省,台湾省,内蒙古自治区,广西壮族自治区,西藏自治区,宁夏回族自治区,新疆维吾尔自治区,香港特别行政区,澳门特别行政区"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>